--- a/WEB/Ordre Réalisation.xlsx
+++ b/WEB/Ordre Réalisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Desktop\GT_Exercices_Garrigues_Hugo\WEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C2833B0-F8AE-4C45-B435-E1B98437BC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B94A104-E950-4D4B-9D81-75724E74BCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Début</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>SITE</t>
+  </si>
+  <si>
+    <t>Push des exercices réalisé a chaque fois qu'ils étaient finis</t>
+  </si>
+  <si>
+    <t>Possible push a chaque update de l'exercice</t>
   </si>
 </sst>
 </file>
@@ -105,10 +111,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,10 +538,26 @@
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>